--- a/data/Expo_Plan.xlsx
+++ b/data/Expo_Plan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,22 +574,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3月</t>
+          <t>5月3日</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>测试场地</t>
+          <t>萤火虫</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>不限</t>
+          <t>崩坏三+崩铁</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>已完结</t>
+          <t>招募中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -598,12 +598,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
         <v>2025</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5月3日萤火虫</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -613,7 +617,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5月3日</t>
+          <t>7月</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -623,12 +627,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>崩坏三+崩铁</t>
+          <t>崩坏三+绝区零</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>招募中</t>
+          <t>规划中</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -637,14 +641,14 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
         <v>2025</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5月3日萤火虫</t>
+          <t>7月萤火虫</t>
         </is>
       </c>
     </row>
@@ -656,17 +660,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7月</t>
+          <t>8月17日</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>萤火虫</t>
+          <t>CPGZ08</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>崩坏三+绝区零</t>
+          <t>原神+绝区零</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -680,41 +684,41 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
         <v>2025</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7月萤火虫</t>
+          <t>8月17日CPGZ08</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Expo</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8月17日</t>
+          <t>3月16日</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CPGZ08</t>
+          <t>AP展场外</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>原神+绝区零</t>
+          <t>米游全家桶</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>规划中</t>
+          <t>已完结</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -723,14 +727,14 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>2025</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8月17日CPGZ08</t>
+          <t>3月16日AP展场外</t>
         </is>
       </c>
     </row>
@@ -742,17 +746,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3月16日</t>
+          <t>4月4日</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AP展场外</t>
+          <t>白云山踏青</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>米游全家桶</t>
+          <t>不限IP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -762,59 +766,16 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>内外</t>
+          <t>内部</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
         <v>2025</v>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>3月16日AP展场外</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4月4日</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>白云山踏青</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>不限IP</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>已完结</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>内部</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2025</v>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>4月4日白云山踏青</t>
         </is>

--- a/data/Expo_Plan.xlsx
+++ b/data/Expo_Plan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,22 +574,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5月3日</t>
+          <t>3月</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>萤火虫</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>崩坏三+崩铁</t>
+          <t>不限</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>招募中</t>
+          <t>已完结</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -598,16 +598,12 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>2025</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>5月3日萤火虫</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -617,7 +613,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7月</t>
+          <t>5月3日</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -627,12 +623,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>崩坏三+绝区零</t>
+          <t>崩坏三+崩铁</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>规划中</t>
+          <t>招募中</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -641,14 +637,14 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>2025</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7月萤火虫</t>
+          <t>5月3日萤火虫</t>
         </is>
       </c>
     </row>
@@ -660,17 +656,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8月17日</t>
+          <t>7月</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CPGZ08</t>
+          <t>萤火虫</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>原神+绝区零</t>
+          <t>崩坏三+绝区零</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,41 +680,41 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
         <v>2025</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8月17日CPGZ08</t>
+          <t>7月萤火虫</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Expo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3月16日</t>
+          <t>8月17日</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AP展场外</t>
+          <t>CPGZ08</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>米游全家桶</t>
+          <t>原神+绝区零</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>已完结</t>
+          <t>规划中</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -727,14 +723,14 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>2025</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3月16日AP展场外</t>
+          <t>8月17日CPGZ08</t>
         </is>
       </c>
     </row>
@@ -746,17 +742,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4月4日</t>
+          <t>3月16日</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>白云山踏青</t>
+          <t>AP展场外</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>不限IP</t>
+          <t>米游全家桶</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -766,16 +762,59 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>内部</t>
+          <t>内外</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>2025</v>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>3月16日AP展场外</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4月4日</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>白云山踏青</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>不限IP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>已完结</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>内部</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>4月4日白云山踏青</t>
         </is>

--- a/data/Expo_Plan.xlsx
+++ b/data/Expo_Plan.xlsx
@@ -574,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3月</t>
+          <t>4月</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>2025</v>

--- a/data/Expo_Plan.xlsx
+++ b/data/Expo_Plan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,22 +574,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4月</t>
+          <t>5月3日</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>萤火虫</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>不限</t>
+          <t>崩坏三+崩铁</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>已完结</t>
+          <t>招募中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -598,12 +598,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
         <v>2025</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5月3日萤火虫</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -613,7 +617,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5月3日</t>
+          <t>7月</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -623,12 +627,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>崩坏三+崩铁</t>
+          <t>崩坏三+绝区零</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>招募中</t>
+          <t>规划中</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -637,14 +641,14 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
         <v>2025</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5月3日萤火虫</t>
+          <t>7月萤火虫</t>
         </is>
       </c>
     </row>
@@ -656,17 +660,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7月</t>
+          <t>8月17日</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>萤火虫</t>
+          <t>CPGZ08</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>崩坏三+绝区零</t>
+          <t>原神+绝区零</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -680,41 +684,41 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
         <v>2025</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7月萤火虫</t>
+          <t>8月17日CPGZ08</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Expo</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8月17日</t>
+          <t>3月16日</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CPGZ08</t>
+          <t>AP展场外</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>原神+绝区零</t>
+          <t>米游全家桶</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>规划中</t>
+          <t>已完结</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -723,14 +727,14 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>2025</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8月17日CPGZ08</t>
+          <t>3月16日AP展场外</t>
         </is>
       </c>
     </row>
@@ -742,17 +746,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3月16日</t>
+          <t>4月4日</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AP展场外</t>
+          <t>白云山踏青</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>米游全家桶</t>
+          <t>不限IP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -762,59 +766,16 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>内外</t>
+          <t>内部</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
         <v>2025</v>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>3月16日AP展场外</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4月4日</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>白云山踏青</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>不限IP</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>已完结</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>内部</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2025</v>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>4月4日白云山踏青</t>
         </is>
